--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,16 +57,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -341,13 +355,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -1,47 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyScan\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>data1</t>
-  </si>
-  <si>
-    <t>data2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>李晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅园慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周家宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宝强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐建业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪晓岚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于小慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金善宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,15 +145,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,196 +456,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="STwWuaUk8tjbHlERroIDNwTIQrzMCHenfcGIQYvGv51eUTiGeAW8sMxnIr0IhjtSxM6RX1VzuSUpPcvAFO9k3w==" saltValue="ezqkBTuqhcUALbFGkXnJbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="22">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -693,11 +693,473 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="STwWuaUk8tjbHlERroIDNwTIQrzMCHenfcGIQYvGv51eUTiGeAW8sMxnIr0IhjtSxM6RX1VzuSUpPcvAFO9k3w==" saltValue="ezqkBTuqhcUALbFGkXnJbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49 C51:C1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>

--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,26 @@
   </si>
   <si>
     <t>女</t>
+  </si>
+  <si>
+    <t>高三二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -494,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高三一班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,9 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>李晓燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,9 +95,6 @@
   <si>
     <t>唐兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
   </si>
   <si>
     <t>高三二班</t>
@@ -477,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,692 +487,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="STwWuaUk8tjbHlERroIDNwTIQrzMCHenfcGIQYvGv51eUTiGeAW8sMxnIr0IhjtSxM6RX1VzuSUpPcvAFO9k3w==" saltValue="ezqkBTuqhcUALbFGkXnJbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cx3/88k8E1xtI/Z6OJ14sthUaxb3PzZ36uhMgVe9TJI3d+U1X+zt543c+Yib7/dDGZ2ue8j7aS+WeKjiHIQFgw==" saltValue="PSQBLuhtTdWs9ggabiXPAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49 C51:C1048576">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyScan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnkn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$75</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,87 +36,313 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高三一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王大宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李晓燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅园慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周家宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宝强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐建业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪晓岚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张小二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于小慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金善宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三四班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三五班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三六班</t>
+    <t>高三1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何增铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄雨洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李欣宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连晨曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶诗杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨永锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何炜昉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨哲轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张名基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林人杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周定康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三1班</t>
+  </si>
+  <si>
+    <t>张彦茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤灿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴志强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈信杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐钦希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江绍辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丙烺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈力涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴闽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林尚明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤琦琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林文静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨泷婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢凌璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑淼文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董须权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三2班</t>
+  </si>
+  <si>
+    <t>李桂真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄佳怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡小梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晓慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李淑淇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖琴琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雨悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜典睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林丁宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嵘恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄典经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张景杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯文武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漳泽鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈宇辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈韩榕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晋双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁伟权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董智霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘利平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘皇强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘咏志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅小仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢嘉颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳栎铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨世杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -495,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -528,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +779,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +845,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +856,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +878,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,10 +911,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +933,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +944,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,10 +955,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +966,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,10 +977,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +988,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,10 +999,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,10 +1010,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +1021,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,10 +1032,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +1043,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,10 +1054,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,10 +1065,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +1076,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +1087,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +1098,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,10 +1109,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,10 +1120,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,10 +1131,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,109 +1142,395 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>17</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>23</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>28</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>29</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>30</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>32</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>33</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>34</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>35</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/学生库.xlsx
+++ b/data/学生库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnkn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyScan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,309 +40,313 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>何增铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李欣宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连晨曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶诗杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨永锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何炜昉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨哲轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张名基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林人杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周定康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高三1班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何增铭</t>
+  </si>
+  <si>
+    <t>张彦茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤灿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴志强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈信杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐钦希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江绍辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丙烺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈力涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴闽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林尚明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤琦琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林文静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨泷婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢凌璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑淼文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董须权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三2班</t>
+  </si>
+  <si>
+    <t>李桂真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄佳怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡小梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晓慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李淑淇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖琴琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雨悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜典睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林丁宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嵘恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄典经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张景杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯文武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漳泽鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈宇辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈韩榕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晋双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁伟权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董智霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘利平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘皇强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘咏志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅小仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢嘉颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳栎铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三2班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄雨洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李欣宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连晨曦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶诗杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨永锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何炜昉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨哲轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张名基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林人杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周定康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三1班</t>
-  </si>
-  <si>
-    <t>张彦茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤灿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴志强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈信杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐钦希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢鸿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江绍辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈丙烺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈力涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张祥梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林小娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴闽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林尚明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤琦琦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林文静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨泷婧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢凌璇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑淼文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董须权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三2班</t>
-  </si>
-  <si>
-    <t>李桂真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄佳怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡小梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄晓慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李淑淇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖琴琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈雨悦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜典睿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林丁宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李嵘恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄典经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张景杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李琦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯文武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漳泽鸿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈宇辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈韩榕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈晋双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翁伟权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林炜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董智霖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李藤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏程中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘利平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘皇强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘咏志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江铧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅小仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈世进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢嘉颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳栎铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨世杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,19 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -718,824 +724,1055 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>35</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cx3/88k8E1xtI/Z6OJ14sthUaxb3PzZ36uhMgVe9TJI3d+U1X+zt543c+Yib7/dDGZ2ue8j7aS+WeKjiHIQFgw==" saltValue="PSQBLuhtTdWs9ggabiXPAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PVbEflu78JmvUPvsfL1RX6Y+LuR43ormJHRcavK6gbs5T3/XBbuq57EkCwqDSTVnXc2HTqOm6cOQuNXuPZE/Yg==" saltValue="l8iyNyC6T2bsbzlt7v8g2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D75">
+      <formula1>1</formula1>
+      <formula2>99</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
